--- a/Examples/initial_table.xlsx
+++ b/Examples/initial_table.xlsx
@@ -340,50 +340,4860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A2:X77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>4.050000000000002</v>
-      </c>
-      <c r="D1">
-        <v>-2.1</v>
-      </c>
-      <c r="E1">
+    <row r="2" spans="1:24">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>-0.09375000000000011</v>
+      </c>
+      <c r="L3">
+        <v>0.1875000000000007</v>
+      </c>
+      <c r="M3">
+        <v>-0.09375000000000065</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>-0</v>
+      </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>-0</v>
+      </c>
+      <c r="T3">
         <v>-1</v>
       </c>
-      <c r="F1">
-        <v>5.750000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>-2.1</v>
-      </c>
-      <c r="D2">
-        <v>1.2</v>
-      </c>
-      <c r="E2">
+      <c r="U3">
+        <v>-0.09374999999999985</v>
+      </c>
+      <c r="V3">
+        <v>0.4062500000000001</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.1875000000000002</v>
+      </c>
+      <c r="L4">
+        <v>-0.375</v>
+      </c>
+      <c r="M4">
+        <v>0.1875000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>-0</v>
+      </c>
+      <c r="T4">
         <v>-1</v>
       </c>
-      <c r="F2">
+      <c r="U4">
+        <v>0.6874999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.6875000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-0.09375000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.1875000000000001</v>
+      </c>
+      <c r="M5">
+        <v>-0.09375</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>-0</v>
+      </c>
+      <c r="S5">
+        <v>-0</v>
+      </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
+        <v>0.40625</v>
+      </c>
+      <c r="V5">
+        <v>-0.0937500000000001</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-0.01875000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.03750000000000014</v>
+      </c>
+      <c r="M6">
+        <v>-0.01875000000000013</v>
+      </c>
+      <c r="N6">
+        <v>-0.5</v>
+      </c>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>-0.5</v>
+      </c>
+      <c r="S6">
+        <v>-0</v>
+      </c>
+      <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <v>-0.01874999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.08125000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.03750000000000004</v>
+      </c>
+      <c r="L7">
+        <v>-0.07500000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.03750000000000008</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>-0.5</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>-0.5</v>
+      </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <v>0.1375</v>
+      </c>
+      <c r="V7">
+        <v>0.1375</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-0.01875000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.03750000000000002</v>
+      </c>
+      <c r="M8">
+        <v>-0.01875</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>-0.5</v>
+      </c>
+      <c r="Q8">
+        <v>-0</v>
+      </c>
+      <c r="R8">
+        <v>-0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <v>0.08125</v>
+      </c>
+      <c r="V8">
+        <v>0.18125</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-0.01875000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.03750000000000014</v>
+      </c>
+      <c r="M9">
+        <v>-0.01875000000000013</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="O9">
+        <v>-0.5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>-0.5</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>-0.01874999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.08125000000000002</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.03750000000000004</v>
+      </c>
+      <c r="L10">
+        <v>-0.07500000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.03750000000000008</v>
+      </c>
+      <c r="N10">
+        <v>-0.5</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>-0.5</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>0.1375</v>
+      </c>
+      <c r="V10">
+        <v>0.1375</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>-0.01875000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.03750000000000002</v>
+      </c>
+      <c r="M11">
+        <v>-0.01875</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>-0.5</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>-0.5</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>0.08125</v>
+      </c>
+      <c r="V11">
+        <v>-0.21875</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>-0.07500000000000011</v>
+      </c>
+      <c r="L14">
+        <v>0.1500000000000007</v>
+      </c>
+      <c r="M14">
+        <v>-0.07500000000000065</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>-0.5</v>
+      </c>
+      <c r="Q14">
+        <v>-0</v>
+      </c>
+      <c r="R14">
+        <v>-0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>-0.1749999999999999</v>
+      </c>
+      <c r="V14">
+        <v>0.6250000000000001</v>
+      </c>
+      <c r="W14">
+        <v>1.25</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>0.2062500000000002</v>
+      </c>
+      <c r="L15">
+        <v>-0.4125</v>
+      </c>
+      <c r="M15">
+        <v>0.2062500000000004</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>-0.5</v>
+      </c>
+      <c r="Q15">
+        <v>-0</v>
+      </c>
+      <c r="R15">
+        <v>-0.5</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.6062499999999998</v>
+      </c>
+      <c r="V15">
+        <v>0.9062500000000001</v>
+      </c>
+      <c r="W15">
+        <v>1.8125</v>
+      </c>
+      <c r="X15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+      <c r="K16">
+        <v>-0.07500000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.1500000000000001</v>
+      </c>
+      <c r="M16">
+        <v>-0.075</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.5</v>
+      </c>
+      <c r="P16">
+        <v>-0.5</v>
+      </c>
+      <c r="Q16">
+        <v>-0</v>
+      </c>
+      <c r="R16">
+        <v>-0.5</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.325</v>
+      </c>
+      <c r="V16">
+        <v>0.1249999999999999</v>
+      </c>
+      <c r="W16">
+        <v>0.2499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1.734723475976807E-17</v>
+      </c>
+      <c r="L17">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="M17">
+        <v>-1.283695372222837E-16</v>
+      </c>
+      <c r="N17">
+        <v>-0.5</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>-0.5</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>0.05625000000000005</v>
+      </c>
+      <c r="L18">
+        <v>-0.1125</v>
+      </c>
+      <c r="M18">
+        <v>0.05625000000000008</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+      <c r="O18">
+        <v>-0.5</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-0.5</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.05624999999999998</v>
+      </c>
+      <c r="V18">
+        <v>0.3562500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>-1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>-0</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0.4</v>
+      </c>
+      <c r="W19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-1</v>
+      </c>
+      <c r="K20">
+        <v>-1.734723475976807E-17</v>
+      </c>
+      <c r="L20">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="M20">
+        <v>-1.283695372222837E-16</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>-0.5</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>0.05625000000000005</v>
+      </c>
+      <c r="L21">
+        <v>-0.1125</v>
+      </c>
+      <c r="M21">
+        <v>0.05625000000000008</v>
+      </c>
+      <c r="N21">
+        <v>-0.5</v>
+      </c>
+      <c r="O21">
+        <v>1.5</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
         <v>-1.5</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0.05624999999999998</v>
+      </c>
+      <c r="V21">
+        <v>0.3562500000000001</v>
+      </c>
+      <c r="W21">
+        <v>0.3562500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>-0</v>
+      </c>
+      <c r="C22">
+        <v>-0</v>
+      </c>
+      <c r="D22">
+        <v>-0</v>
+      </c>
+      <c r="E22">
+        <v>-0</v>
+      </c>
+      <c r="F22">
+        <v>-0</v>
+      </c>
+      <c r="G22">
+        <v>-0</v>
+      </c>
+      <c r="H22">
+        <v>-0</v>
+      </c>
+      <c r="I22">
+        <v>-0</v>
+      </c>
+      <c r="J22">
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <v>0.01875000000000001</v>
+      </c>
+      <c r="L22">
+        <v>-0.03750000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.01875</v>
+      </c>
+      <c r="N22">
+        <v>-0</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>-0.5</v>
+      </c>
+      <c r="Q22">
+        <v>-0</v>
+      </c>
+      <c r="R22">
+        <v>-0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>-0.08125</v>
+      </c>
+      <c r="V22">
+        <v>0.21875</v>
+      </c>
+      <c r="W22">
+        <v>0.4375000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>14</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+      <c r="R24">
+        <v>16</v>
+      </c>
+      <c r="S24">
+        <v>17</v>
+      </c>
+      <c r="T24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-8.326672684688674E-17</v>
+      </c>
+      <c r="L25">
+        <v>6.106226635438361E-16</v>
+      </c>
+      <c r="M25">
+        <v>-6.522560269672795E-16</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>-0.4999999999999999</v>
+      </c>
+      <c r="V25">
+        <v>0.5000000000000002</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.2812500000000002</v>
+      </c>
+      <c r="L26">
+        <v>-0.5625000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.2812500000000004</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0.2812499999999998</v>
+      </c>
+      <c r="V26">
+        <v>0.7812500000000002</v>
+      </c>
+      <c r="W26">
+        <v>2.777777777777775</v>
+      </c>
+      <c r="X26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>-2</v>
+      </c>
+      <c r="K27">
+        <v>-0.15</v>
+      </c>
+      <c r="L27">
+        <v>0.3000000000000002</v>
+      </c>
+      <c r="M27">
+        <v>-0.15</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>-0</v>
+      </c>
+      <c r="R27">
+        <v>-1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0.65</v>
+      </c>
+      <c r="V27">
+        <v>0.2499999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="L28">
+        <v>-0.15</v>
+      </c>
+      <c r="M28">
+        <v>0.07499999999999987</v>
+      </c>
+      <c r="N28">
+        <v>-0.5</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>-0.5</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>-0.425</v>
+      </c>
+      <c r="V28">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="W28">
+        <v>2.333333333333339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>0.05625000000000005</v>
+      </c>
+      <c r="L29">
+        <v>-0.1125</v>
+      </c>
+      <c r="M29">
+        <v>0.05625000000000008</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>-0.5</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>-0.5</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0.05624999999999998</v>
+      </c>
+      <c r="V29">
+        <v>0.3562500000000001</v>
+      </c>
+      <c r="W29">
+        <v>6.333333333333325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.15</v>
+      </c>
+      <c r="L30">
+        <v>-0.3000000000000002</v>
+      </c>
+      <c r="M30">
+        <v>0.15</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>-0.65</v>
+      </c>
+      <c r="V30">
+        <v>0.1500000000000002</v>
+      </c>
+      <c r="W30">
+        <v>1.000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="L31">
+        <v>-0.15</v>
+      </c>
+      <c r="M31">
+        <v>0.07499999999999987</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>-0.5</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>-0.5</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>-0.425</v>
+      </c>
+      <c r="V31">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="W31">
+        <v>2.333333333333339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>-2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.2062500000000001</v>
+      </c>
+      <c r="L32">
+        <v>-0.4125000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.2062500000000001</v>
+      </c>
+      <c r="N32">
+        <v>-0.5</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>-0.5</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>-0.59375</v>
+      </c>
+      <c r="V32">
+        <v>0.1062500000000002</v>
+      </c>
+      <c r="W32">
+        <v>0.5151515151515159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>-0</v>
+      </c>
+      <c r="C33">
+        <v>-0</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>-0</v>
+      </c>
+      <c r="F33">
+        <v>-0</v>
+      </c>
+      <c r="G33">
+        <v>-0</v>
+      </c>
+      <c r="H33">
+        <v>-0</v>
+      </c>
+      <c r="I33">
+        <v>-0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.09375000000000003</v>
+      </c>
+      <c r="L33">
+        <v>-0.1875000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.09375</v>
+      </c>
+      <c r="N33">
+        <v>-0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>-0.40625</v>
+      </c>
+      <c r="V33">
+        <v>0.0937500000000001</v>
+      </c>
+      <c r="W33">
+        <v>1.000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>13</v>
+      </c>
+      <c r="P35">
+        <v>14</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+      <c r="R35">
+        <v>16</v>
+      </c>
+      <c r="S35">
+        <v>17</v>
+      </c>
+      <c r="T35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>-1.000000000000006</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>3.162453464083778E-15</v>
+      </c>
+      <c r="J36">
+        <v>3.162453464083778E-15</v>
+      </c>
+      <c r="K36">
+        <v>5.689893001203928E-16</v>
+      </c>
+      <c r="L36">
+        <v>-6.93889390390723E-16</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>-1.581226732041889E-15</v>
+      </c>
+      <c r="O36">
+        <v>1.581226732041889E-15</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1.581226732041889E-15</v>
+      </c>
+      <c r="R36">
+        <v>-1.581226732041889E-15</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>-0.5000000000000018</v>
+      </c>
+      <c r="V36">
+        <v>0.5000000000000006</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>-1.363636363636365</v>
+      </c>
+      <c r="J37">
+        <v>-1.363636363636365</v>
+      </c>
+      <c r="K37">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="L37">
+        <v>7.771561172376096E-16</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.6818181818181825</v>
+      </c>
+      <c r="O37">
+        <v>-0.6818181818181825</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>-0.6818181818181825</v>
+      </c>
+      <c r="R37">
+        <v>0.6818181818181825</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="V37">
+        <v>0.6363636363636361</v>
+      </c>
+      <c r="W37">
+        <v>0.933333333333332</v>
+      </c>
+      <c r="X37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.5454545454545461</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="J38">
+        <v>-1.272727272727273</v>
+      </c>
+      <c r="K38">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="L38">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>-0.3636363636363635</v>
+      </c>
+      <c r="O38">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>0.3636363636363635</v>
+      </c>
+      <c r="R38">
+        <v>-1.363636363636364</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0.2181818181818184</v>
+      </c>
+      <c r="V38">
+        <v>0.3272727272727273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>-0.2727272727272743</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>-0.3636363636363629</v>
+      </c>
+      <c r="J39">
+        <v>-0.3636363636363629</v>
+      </c>
+      <c r="K39">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="L39">
+        <v>-1.942890293094024E-16</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>-0.3181818181818186</v>
+      </c>
+      <c r="O39">
+        <v>0.3181818181818186</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.3181818181818186</v>
+      </c>
+      <c r="R39">
+        <v>-0.3181818181818186</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>-0.2090909090909095</v>
+      </c>
+      <c r="V39">
+        <v>0.1363636363636365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.5454545454545461</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>-0.272727272727273</v>
+      </c>
+      <c r="J40">
+        <v>-1.272727272727273</v>
+      </c>
+      <c r="K40">
+        <v>-4.163336342344337E-17</v>
+      </c>
+      <c r="L40">
+        <v>1.52655665885959E-16</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.6363636363636365</v>
+      </c>
+      <c r="O40">
+        <v>-0.6363636363636365</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>-0.6363636363636365</v>
+      </c>
+      <c r="R40">
+        <v>0.6363636363636365</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0.2181818181818184</v>
+      </c>
+      <c r="V40">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="W40">
+        <v>0.5142857142857142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>-0.5454545454545461</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>-0.727272727272727</v>
+      </c>
+      <c r="J41">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="K41">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="L41">
+        <v>-1.110223024625157E-16</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.3636363636363635</v>
+      </c>
+      <c r="O41">
+        <v>-0.3636363636363635</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>-0.3636363636363635</v>
+      </c>
+      <c r="R41">
+        <v>0.3636363636363635</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>-0.2181818181818184</v>
+      </c>
+      <c r="V41">
+        <v>0.07272727272727277</v>
+      </c>
+      <c r="W41">
+        <v>0.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>-0.2727272727272743</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>-0.3636363636363629</v>
+      </c>
+      <c r="J42">
+        <v>-0.3636363636363629</v>
+      </c>
+      <c r="K42">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="L42">
+        <v>-1.942890293094024E-16</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0.6818181818181814</v>
+      </c>
+      <c r="O42">
+        <v>-0.6818181818181814</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-0.6818181818181814</v>
+      </c>
+      <c r="R42">
+        <v>0.6818181818181814</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>-0.2090909090909095</v>
+      </c>
+      <c r="V42">
+        <v>0.1363636363636365</v>
+      </c>
+      <c r="W42">
+        <v>0.2000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>-9.696969696969694</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>4.848484848484847</v>
+      </c>
+      <c r="J43">
+        <v>4.848484848484847</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>-2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>-2.424242424242423</v>
+      </c>
+      <c r="O43">
+        <v>2.424242424242423</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2.424242424242423</v>
+      </c>
+      <c r="R43">
+        <v>-2.424242424242423</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>-2.878787878787878</v>
+      </c>
+      <c r="V43">
+        <v>0.5151515151515159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>-0</v>
+      </c>
+      <c r="C44">
+        <v>-0</v>
+      </c>
+      <c r="D44">
+        <v>-0.09090909090909127</v>
+      </c>
+      <c r="E44">
+        <v>-0</v>
+      </c>
+      <c r="F44">
+        <v>-0</v>
+      </c>
+      <c r="G44">
+        <v>-0</v>
+      </c>
+      <c r="H44">
+        <v>-0</v>
+      </c>
+      <c r="I44">
+        <v>-0.4545454545454544</v>
+      </c>
+      <c r="J44">
+        <v>-0.4545454545454544</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>-5.551115123125783E-17</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.2272727272727272</v>
+      </c>
+      <c r="O44">
+        <v>-0.2272727272727272</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-0.2272727272727272</v>
+      </c>
+      <c r="R44">
+        <v>0.2272727272727272</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>-0.1363636363636365</v>
+      </c>
+      <c r="V44">
+        <v>0.04545454545454547</v>
+      </c>
+      <c r="W44">
+        <v>0.2000000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>11</v>
+      </c>
+      <c r="N46">
+        <v>12</v>
+      </c>
+      <c r="O46">
+        <v>13</v>
+      </c>
+      <c r="P46">
+        <v>14</v>
+      </c>
+      <c r="Q46">
+        <v>15</v>
+      </c>
+      <c r="R46">
+        <v>16</v>
+      </c>
+      <c r="S46">
+        <v>17</v>
+      </c>
+      <c r="T46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>-1.000000000000007</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>5.689893001203928E-16</v>
+      </c>
+      <c r="L47">
+        <v>-6.938893903907234E-16</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>6.957397620984314E-15</v>
+      </c>
+      <c r="U47">
+        <v>-0.5000000000000028</v>
+      </c>
+      <c r="V47">
+        <v>0.5000000000000009</v>
+      </c>
+      <c r="W47">
+        <v>878751146804000.6</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2.000000000000004</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="L48">
+        <v>9.436895709313833E-16</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-3.000000000000004</v>
+      </c>
+      <c r="U48">
+        <v>1.500000000000001</v>
+      </c>
+      <c r="V48">
+        <v>0.4999999999999996</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>-1.77635683940025E-15</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>-2</v>
+      </c>
+      <c r="J49">
+        <v>-4</v>
+      </c>
+      <c r="K49">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="L49">
+        <v>-2.220446049250314E-16</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>-1</v>
+      </c>
+      <c r="Q49">
+        <v>-1</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>6.000000000000002</v>
+      </c>
+      <c r="U49">
+        <v>-0.6000000000000008</v>
+      </c>
+      <c r="V49">
+        <v>0.6000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>-0.4000000000000022</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <v>-1</v>
+      </c>
+      <c r="K50">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="L50">
+        <v>-2.720046410331635E-16</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1.400000000000002</v>
+      </c>
+      <c r="U50">
+        <v>-0.4000000000000009</v>
+      </c>
+      <c r="V50">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="W50">
+        <v>1601279867509512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.8000000000000018</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>-4.163336342344337E-17</v>
+      </c>
+      <c r="L51">
+        <v>3.08086889333481E-16</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-2.800000000000002</v>
+      </c>
+      <c r="U51">
+        <v>0.6000000000000006</v>
+      </c>
+      <c r="V51">
+        <v>0.1999999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>-0.4</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="L52">
+        <v>-2.220446049250314E-17</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-1.6</v>
+      </c>
+      <c r="U52">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="V52">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>-4.996003610813204E-16</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="L53">
+        <v>-2.775557561562894E-17</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-3</v>
+      </c>
+      <c r="U53">
+        <v>0.1999999999999998</v>
+      </c>
+      <c r="V53">
+        <v>8.326672684688674E-17</v>
+      </c>
+      <c r="W53">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>-10.66666666666667</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>-2.000000000000001</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="U54">
+        <v>-4.333333333333333</v>
+      </c>
+      <c r="V54">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="W54">
+        <v>1.000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>-0</v>
+      </c>
+      <c r="C55">
+        <v>-0</v>
+      </c>
+      <c r="D55">
+        <v>-0.4000000000000017</v>
+      </c>
+      <c r="E55">
+        <v>-0</v>
+      </c>
+      <c r="F55">
+        <v>-0</v>
+      </c>
+      <c r="G55">
+        <v>-0</v>
+      </c>
+      <c r="H55">
+        <v>-0</v>
+      </c>
+      <c r="I55">
+        <v>-2</v>
+      </c>
+      <c r="J55">
+        <v>-2</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-2.442490654175346E-16</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>-1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4.400000000000002</v>
+      </c>
+      <c r="U55">
+        <v>-0.6000000000000006</v>
+      </c>
+      <c r="V55">
+        <v>0.2000000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>10</v>
+      </c>
+      <c r="M57">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>12</v>
+      </c>
+      <c r="O57">
+        <v>13</v>
+      </c>
+      <c r="P57">
+        <v>14</v>
+      </c>
+      <c r="Q57">
+        <v>15</v>
+      </c>
+      <c r="R57">
+        <v>16</v>
+      </c>
+      <c r="S57">
+        <v>17</v>
+      </c>
+      <c r="T57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>-1.000000000000007</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>5.689893001203928E-16</v>
+      </c>
+      <c r="L58">
+        <v>-6.938893903907234E-16</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>6.957397620984314E-15</v>
+      </c>
+      <c r="U58">
+        <v>-0.5000000000000028</v>
+      </c>
+      <c r="V58">
+        <v>0.5000000000000009</v>
+      </c>
+      <c r="X58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2.000000000000004</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-2.220446049250313E-16</v>
+      </c>
+      <c r="L59">
+        <v>9.436895709313833E-16</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-3.000000000000004</v>
+      </c>
+      <c r="U59">
+        <v>1.500000000000001</v>
+      </c>
+      <c r="V59">
+        <v>0.4999999999999996</v>
+      </c>
+      <c r="W59">
+        <v>0.3333333333333328</v>
+      </c>
+      <c r="X59">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>-1.77635683940025E-15</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>-2</v>
+      </c>
+      <c r="J60">
+        <v>-4</v>
+      </c>
+      <c r="K60">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="L60">
+        <v>-2.220446049250314E-16</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>-1</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>6.000000000000002</v>
+      </c>
+      <c r="U60">
+        <v>-0.6000000000000008</v>
+      </c>
+      <c r="V60">
+        <v>0.6000000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>-0.4000000000000022</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
+      <c r="J61">
+        <v>-1</v>
+      </c>
+      <c r="K61">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="L61">
+        <v>-2.720046410331635E-16</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1.400000000000002</v>
+      </c>
+      <c r="U61">
+        <v>-0.4000000000000009</v>
+      </c>
+      <c r="V61">
+        <v>0.2000000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.8000000000000018</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>-4.163336342344337E-17</v>
+      </c>
+      <c r="L62">
+        <v>3.08086889333481E-16</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>-2.800000000000002</v>
+      </c>
+      <c r="U62">
+        <v>0.6000000000000006</v>
+      </c>
+      <c r="V62">
+        <v>0.1999999999999999</v>
+      </c>
+      <c r="W62">
+        <v>0.3333333333333328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>-0.4</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="L63">
+        <v>-2.220446049250314E-17</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-1.6</v>
+      </c>
+      <c r="U63">
+        <v>-2.775557561562891E-17</v>
+      </c>
+      <c r="V63">
+        <v>2.775557561562891E-17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>-4.996003610813204E-16</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1.249000902703301E-16</v>
+      </c>
+      <c r="L64">
+        <v>-2.775557561562894E-17</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-3</v>
+      </c>
+      <c r="U64">
+        <v>0.1999999999999998</v>
+      </c>
+      <c r="V64">
+        <v>8.326672684688674E-17</v>
+      </c>
+      <c r="W64">
+        <v>4.163336342344341E-16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>-10.66666666666667</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>-2.000000000000001</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="U65">
+        <v>-4.333333333333333</v>
+      </c>
+      <c r="V65">
+        <v>1.000000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>-0</v>
+      </c>
+      <c r="C66">
+        <v>-0</v>
+      </c>
+      <c r="D66">
+        <v>-0.4000000000000017</v>
+      </c>
+      <c r="E66">
+        <v>-0</v>
+      </c>
+      <c r="F66">
+        <v>-0</v>
+      </c>
+      <c r="G66">
+        <v>-0</v>
+      </c>
+      <c r="H66">
+        <v>-0</v>
+      </c>
+      <c r="I66">
+        <v>-2</v>
+      </c>
+      <c r="J66">
+        <v>-2</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>-2.442490654175346E-16</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>-1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4.400000000000002</v>
+      </c>
+      <c r="U66">
+        <v>-0.6000000000000006</v>
+      </c>
+      <c r="V66">
+        <v>0.2000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <v>11</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>13</v>
+      </c>
+      <c r="P68">
+        <v>14</v>
+      </c>
+      <c r="Q68">
+        <v>15</v>
+      </c>
+      <c r="R68">
+        <v>16</v>
+      </c>
+      <c r="S68">
+        <v>17</v>
+      </c>
+      <c r="T68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>-1.000000000000008</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>2.500000000000016</v>
+      </c>
+      <c r="I69">
+        <v>2.500000000000016</v>
+      </c>
+      <c r="J69">
+        <v>2.500000000000016</v>
+      </c>
+      <c r="K69">
+        <v>8.812395257962202E-16</v>
+      </c>
+      <c r="L69">
+        <v>-7.632783294297962E-16</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-7.50000000000004</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0.5000000000000011</v>
+      </c>
+      <c r="X69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2.000000000000008</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>-7.500000000000013</v>
+      </c>
+      <c r="I70">
+        <v>-7.500000000000013</v>
+      </c>
+      <c r="J70">
+        <v>-7.500000000000013</v>
+      </c>
+      <c r="K70">
+        <v>-1.158795281952509E-15</v>
+      </c>
+      <c r="L70">
+        <v>1.151856388048601E-15</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>19.50000000000004</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0.4999999999999989</v>
+      </c>
+      <c r="X70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>-3.275157922644215E-15</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>3.000000000000007</v>
+      </c>
+      <c r="I71">
+        <v>1.000000000000007</v>
+      </c>
+      <c r="J71">
+        <v>-0.9999999999999933</v>
+      </c>
+      <c r="K71">
+        <v>3.469446951953622E-16</v>
+      </c>
+      <c r="L71">
+        <v>-3.053113317719184E-16</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>-1</v>
+      </c>
+      <c r="Q71">
+        <v>-1</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>-3.000000000000016</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0.6000000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>-0.4000000000000032</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>2.000000000000006</v>
+      </c>
+      <c r="I72">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="J72">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="K72">
+        <v>3.747002708109911E-16</v>
+      </c>
+      <c r="L72">
+        <v>-3.275157922644215E-16</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-4.600000000000017</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0.2000000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0.8000000000000034</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>-3.000000000000006</v>
+      </c>
+      <c r="I73">
+        <v>-2.000000000000006</v>
+      </c>
+      <c r="J73">
+        <v>-3.000000000000006</v>
+      </c>
+      <c r="K73">
+        <v>-4.163336342344344E-16</v>
+      </c>
+      <c r="L73">
+        <v>3.91353616180368E-16</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>6.200000000000014</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0.1999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>-0.4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1.387778780781447E-16</v>
+      </c>
+      <c r="I74">
+        <v>1.387778780781447E-16</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2.775557561562893E-17</v>
+      </c>
+      <c r="L74">
+        <v>-2.220446049250314E-17</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>-1.6</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>2.775557561562893E-17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>-2.498001805406605E-15</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>5.000000000000004</v>
+      </c>
+      <c r="I75">
+        <v>5.000000000000004</v>
+      </c>
+      <c r="J75">
+        <v>5.000000000000004</v>
+      </c>
+      <c r="K75">
+        <v>6.245004513516511E-16</v>
+      </c>
+      <c r="L75">
+        <v>-1.387778780781448E-16</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-15.00000000000001</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>4.163336342344341E-16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>-10.66666666666668</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>21.66666666666669</v>
+      </c>
+      <c r="I76">
+        <v>21.66666666666669</v>
+      </c>
+      <c r="J76">
+        <v>21.66666666666669</v>
+      </c>
+      <c r="K76">
+        <v>1.000000000000003</v>
+      </c>
+      <c r="L76">
+        <v>-2.000000000000001</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-54.33333333333337</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>1.000000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>-0.4000000000000032</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>3.000000000000006</v>
+      </c>
+      <c r="I77">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="J77">
+        <v>1.000000000000006</v>
+      </c>
+      <c r="K77">
+        <v>3.747002708109911E-16</v>
+      </c>
+      <c r="L77">
+        <v>-3.275157922644215E-16</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>-1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>-1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-4.600000000000014</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0.2000000000000004</v>
       </c>
     </row>
   </sheetData>
